--- a/testcase/GuruDemoSite_Testcase.xlsx
+++ b/testcase/GuruDemoSite_Testcase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId2"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Text</t>
   </si>
@@ -170,15 +170,6 @@
   </si>
   <si>
     <t>1. Click New Customer link button</t>
-  </si>
-  <si>
-    <t>1 Input 
-1.1 UserID textbox is empty
-1.2 Password textbox is empty
-1.3 UserID and Password textbox are empty
-1.4 UserID or Password is invalid
-1.5 UserID and Password are valid
-2. Click Login</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -257,6 +248,9 @@
 1.9 Click to Password
 2. Click to another field
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Input </t>
   </si>
 </sst>
 </file>
@@ -571,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,13 +700,25 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1050,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -1138,68 +1144,68 @@
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="52" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="52" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="48"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:9" s="32" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
       <c r="A13" s="28" t="s">
@@ -1208,7 +1214,7 @@
       <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -1222,16 +1228,18 @@
       <c r="H13" s="33"/>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:9" s="32" customFormat="1" ht="102" outlineLevel="2">
+    <row r="14" spans="1:9" s="32" customFormat="1" ht="102" customHeight="1" outlineLevel="2">
       <c r="A14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="31" t="s">
-        <v>50</v>
+      <c r="C14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>26</v>
@@ -1248,7 +1256,9 @@
       <c r="B15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="31" t="s">
         <v>29</v>
       </c>
@@ -1261,41 +1271,139 @@
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C13:C15"/>
+  <mergeCells count="9">
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="A12:I12"/>
@@ -1319,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -1405,64 +1513,64 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="52" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="52" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="48"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -1473,7 +1581,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>40</v>
@@ -1496,14 +1604,14 @@
       <c r="B14" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="63" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -1517,12 +1625,12 @@
       <c r="B15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>53</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -1536,9 +1644,9 @@
       <c r="B16" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>37</v>
@@ -1683,64 +1791,64 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="52" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="52" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="48"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -1753,14 +1861,14 @@
       <c r="B13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="63" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -1772,14 +1880,14 @@
         <v>44</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="C14" s="64"/>
       <c r="D14" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>58</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -1793,12 +1901,12 @@
       <c r="B15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>61</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>

--- a/testcase/GuruDemoSite_Testcase.xlsx
+++ b/testcase/GuruDemoSite_Testcase.xlsx
@@ -1059,10 +1059,10 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A13:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
@@ -1207,7 +1207,7 @@
       <c r="H12" s="54"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9" s="32" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
+    <row r="13" spans="1:9" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="26"/>
     </row>
-    <row r="14" spans="1:9" s="32" customFormat="1" ht="102" customHeight="1" outlineLevel="2">
+    <row r="14" spans="1:9" s="32" customFormat="1" ht="102" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="26"/>
     </row>
-    <row r="15" spans="1:9" s="32" customFormat="1" ht="25.5" customHeight="1" outlineLevel="2">
+    <row r="15" spans="1:9" s="32" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>27</v>
       </c>

--- a/testcase/GuruDemoSite_Testcase.xlsx
+++ b/testcase/GuruDemoSite_Testcase.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId2"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>Text</t>
   </si>
@@ -237,7 +238,10 @@
     <t>Verify New Customer link</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 Click to customer name
+    <t xml:space="preserve">1 Input </t>
+  </si>
+  <si>
+    <t>1.1 Click to customer name
 1.2 Click to Date of Birth
 1.3 Click to  Address
 1.4 Click to City
@@ -246,11 +250,7 @@
 1.7 Click to Mobile Number
 1.8 Click to Email
 1.9 Click to Password
-2. Click to another field
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Input </t>
+2. Click to another field</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,12 +679,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +714,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,15 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1093,7 +1102,7 @@
       <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="39"/>
       <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1116,7 @@
       <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
       <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1121,91 +1130,91 @@
       <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:9">
       <c r="D6" s="6"/>
       <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:9">
       <c r="D7" s="6"/>
       <c r="E7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
       <c r="E8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="52"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="1:9" s="32" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="28" t="s">
@@ -1232,14 +1241,14 @@
       <c r="A14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>63</v>
+      <c r="D14" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>26</v>
@@ -1271,9 +1280,9 @@
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -1282,9 +1291,9 @@
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -1293,9 +1302,9 @@
       <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
@@ -1304,101 +1313,101 @@
       <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="51"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="51"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="51"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
-      <c r="G25" s="51"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
-      <c r="G26" s="51"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="51"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
     </row>
@@ -1425,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -1513,65 +1522,65 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="21" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="52"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
       <c r="I12" s="26"/>
@@ -1580,7 +1589,7 @@
       <c r="A13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -1589,7 +1598,7 @@
       <c r="D13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="38" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="34"/>
@@ -1601,14 +1610,14 @@
       <c r="A14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>50</v>
@@ -1622,10 +1631,12 @@
       <c r="A15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="34" t="s">
         <v>51</v>
       </c>
@@ -1641,10 +1652,12 @@
       <c r="A16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="34" t="s">
         <v>53</v>
       </c>
@@ -1657,39 +1670,137 @@
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C14:C16"/>
+  <mergeCells count="9">
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">
@@ -1703,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -1791,64 +1902,64 @@
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="52"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" s="27" customFormat="1">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -1861,7 +1972,7 @@
       <c r="B13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -1882,7 +1993,9 @@
       <c r="B14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" s="31" t="s">
         <v>56</v>
       </c>
@@ -1901,7 +2014,9 @@
       <c r="B15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="31" t="s">
         <v>59</v>
       </c>
@@ -1914,44 +2029,521 @@
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="G9:G11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I1048576">
+      <formula1>"Rejected"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12">
+        <f>COUNTIFS(A12:A884, "TC_*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="D4" s="6"/>
+      <c r="E4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="H4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12">
+        <f>COUNTIFS(I12:I884, "Rejected")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1">
+      <c r="D5" s="6"/>
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" s="6"/>
+      <c r="E6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7" s="6"/>
+      <c r="E7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1">
+      <c r="E8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="58"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+    </row>
+    <row r="12" spans="1:9" s="27" customFormat="1">
+      <c r="A12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" s="32" customFormat="1" ht="38.25" customHeight="1" outlineLevel="2">
+      <c r="A13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" s="32" customFormat="1" ht="158.25" customHeight="1" outlineLevel="2">
+      <c r="A14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="51">
+      <c r="A15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.5">
+      <c r="A16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
